--- a/data/trans_dic/P56$auxiliar-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$auxiliar-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.07437074058676543</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2629587687150529</v>
+        <v>0.262958768715053</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07820890085999184</v>
@@ -709,37 +709,37 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.06385733104174422</v>
+        <v>0.06227567206553337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02833765467731377</v>
+        <v>0.02886712704153532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1835076832903736</v>
+        <v>0.1820867158190023</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0275522033422596</v>
+        <v>0.02496585264225413</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1639659803275858</v>
+        <v>0.1631858036548</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03503120399508861</v>
+        <v>0.03391767193735968</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2340670920202947</v>
+        <v>0.2371216376476588</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02395491864391543</v>
+        <v>0.01844415710769752</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1475543151322623</v>
+        <v>0.1503332570841989</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04421456848606499</v>
+        <v>0.03832540048361509</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2320587755218744</v>
+        <v>0.2316373591145825</v>
       </c>
     </row>
     <row r="6">
@@ -751,37 +751,37 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.2300027903846949</v>
+        <v>0.2207233734236498</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1599007998308202</v>
+        <v>0.1678378038607148</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3535926536992688</v>
+        <v>0.3539599313226633</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1475677757157211</v>
+        <v>0.1457137862353772</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2855925870161763</v>
+        <v>0.2890569211247488</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.136277479003198</v>
+        <v>0.1405718666021239</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3197006027044018</v>
+        <v>0.3255505403569974</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1037826175514359</v>
+        <v>0.1019301442753243</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2459594041142446</v>
+        <v>0.2547673206123098</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1215474996314755</v>
+        <v>0.1144619034157353</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3117496766101233</v>
+        <v>0.3135596038949848</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.04769952913108006</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2919896324828175</v>
+        <v>0.2919896324828174</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0.03311459944018518</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2415472880970581</v>
+        <v>0.241547288097058</v>
       </c>
     </row>
     <row r="8">
@@ -843,7 +843,7 @@
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.07546046265849722</v>
+        <v>0.07510978212442451</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1990304598356177</v>
+        <v>0.2048219916647779</v>
       </c>
       <c r="K8" s="5" t="inlineStr"/>
       <c r="L8" s="5" t="inlineStr"/>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1743245646517482</v>
+        <v>0.1782821456854957</v>
       </c>
     </row>
     <row r="9">
@@ -873,23 +873,23 @@
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.2847595386532091</v>
+        <v>0.2924585344856118</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.2434781462184435</v>
+        <v>0.204700850654769</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4009818333426769</v>
+        <v>0.3882974404289132</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="n">
-        <v>0.1470891551602874</v>
+        <v>0.1634158509187457</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3286464949178682</v>
+        <v>0.3250640113262275</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06956133946371065</v>
+        <v>0.06956133946371067</v>
       </c>
     </row>
     <row r="11">
@@ -977,13 +977,13 @@
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.4029920364284668</v>
+        <v>0.4099775350929326</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.2249278630943276</v>
+        <v>0.2461562213908237</v>
       </c>
     </row>
     <row r="13">
@@ -1019,7 +1019,7 @@
         <v>0.06777593983061829</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2754033787619427</v>
+        <v>0.2754033787619428</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0459990103117232</v>
@@ -1031,7 +1031,7 @@
         <v>0.06502711388384845</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2589894954790698</v>
+        <v>0.2589894954790699</v>
       </c>
     </row>
     <row r="14">
@@ -1043,37 +1043,37 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.05646774935398383</v>
+        <v>0.04852351173616781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02198939777530906</v>
+        <v>0.02184255247314981</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1619942355547099</v>
+        <v>0.1574354647693174</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02377897523180993</v>
+        <v>0.02405920170849666</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1485527722263306</v>
+        <v>0.1510651151406872</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03367000237500649</v>
+        <v>0.03061889658127953</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2343923432359858</v>
+        <v>0.2370133849795365</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01651238785232563</v>
+        <v>0.016195650834365</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1370180394612473</v>
+        <v>0.136118684475919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03762872436395551</v>
+        <v>0.03666172842255344</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2242168236316812</v>
+        <v>0.2265594620855992</v>
       </c>
     </row>
     <row r="15">
@@ -1085,37 +1085,37 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.2129467556805692</v>
+        <v>0.2026088659511811</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1205537243169123</v>
+        <v>0.1303925030573097</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2927651318577661</v>
+        <v>0.2857060349460546</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1382159702541773</v>
+        <v>0.13872497416496</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2598944785724313</v>
+        <v>0.2657617551527234</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1246315398958958</v>
+        <v>0.1221962467230234</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3175335615983129</v>
+        <v>0.3170853905208909</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09026577121047114</v>
+        <v>0.0973460976097769</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2299708929190355</v>
+        <v>0.2241322546331199</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1062697395570246</v>
+        <v>0.1028609228853934</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2959065384196753</v>
+        <v>0.2938048780625692</v>
       </c>
     </row>
     <row r="16">
@@ -1386,37 +1386,37 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>4367</v>
+        <v>4259</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1606</v>
+        <v>1636</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13258</v>
+        <v>13155</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2298</v>
+        <v>2083</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>30489</v>
+        <v>30344</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5000</v>
+        <v>4841</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>50832</v>
+        <v>51495</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3055</v>
+        <v>2353</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>37529</v>
+        <v>38236</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8817</v>
+        <v>7643</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>67162</v>
+        <v>67040</v>
       </c>
     </row>
     <row r="7">
@@ -1428,37 +1428,37 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>15731</v>
+        <v>15096</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9065</v>
+        <v>9515</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>25546</v>
+        <v>25573</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12309</v>
+        <v>12155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>53106</v>
+        <v>53750</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19451</v>
+        <v>20064</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>69429</v>
+        <v>70699</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>13238</v>
+        <v>13001</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>62558</v>
+        <v>64798</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>24239</v>
+        <v>22826</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>90226</v>
+        <v>90749</v>
       </c>
     </row>
     <row r="8">
@@ -1564,7 +1564,7 @@
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>2158</v>
+        <v>2148</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="inlineStr"/>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9566</v>
+        <v>9844</v>
       </c>
       <c r="K10" s="6" t="inlineStr"/>
       <c r="L10" s="6" t="inlineStr"/>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>13363</v>
+        <v>13666</v>
       </c>
     </row>
     <row r="11">
@@ -1594,23 +1594,23 @@
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>8142</v>
+        <v>8362</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>6180</v>
+        <v>5196</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19272</v>
+        <v>18662</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="n">
-        <v>5378</v>
+        <v>5975</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>25192</v>
+        <v>24918</v>
       </c>
     </row>
     <row r="12">
@@ -1742,13 +1742,13 @@
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>3292</v>
+        <v>3349</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>3445</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="16">
@@ -1852,37 +1852,37 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>4433</v>
+        <v>3809</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17494</v>
+        <v>17001</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2224</v>
+        <v>2251</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30028</v>
+        <v>30536</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5784</v>
+        <v>5260</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>64083</v>
+        <v>64799</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2342</v>
+        <v>2297</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>38453</v>
+        <v>38200</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>9177</v>
+        <v>8941</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>85514</v>
+        <v>86407</v>
       </c>
     </row>
     <row r="19">
@@ -1894,37 +1894,37 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>16717</v>
+        <v>15906</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8692</v>
+        <v>9401</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31615</v>
+        <v>30853</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12929</v>
+        <v>12977</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>52534</v>
+        <v>53720</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>21410</v>
+        <v>20992</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>86813</v>
+        <v>86691</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>12802</v>
+        <v>13806</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>64539</v>
+        <v>62900</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>25918</v>
+        <v>25086</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>112855</v>
+        <v>112054</v>
       </c>
     </row>
     <row r="20">
